--- a/book.xlsx
+++ b/book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Auto\Auto27\AT27\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3655C61B-A9CF-41D6-955D-F4F46621A382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B839E42-A6EF-4E2E-B057-15096516FE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1080" windowWidth="10125" windowHeight="8295" xr2:uid="{55BA9832-05D2-4C96-AF49-DEF7A55FDE2D}"/>
   </bookViews>
@@ -445,7 +445,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/book.xlsx
+++ b/book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Auto\Auto27\AT27\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B839E42-A6EF-4E2E-B057-15096516FE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0BE45B-3074-43E8-A218-8C2FD22B7A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="10125" windowHeight="8295" xr2:uid="{55BA9832-05D2-4C96-AF49-DEF7A55FDE2D}"/>
+    <workbookView xWindow="10365" yWindow="1200" windowWidth="10125" windowHeight="8295" xr2:uid="{55BA9832-05D2-4C96-AF49-DEF7A55FDE2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>Business Email</t>
   </si>
@@ -72,25 +72,50 @@
     <t>haht@bfd.vn</t>
   </si>
   <si>
-    <t>Visual Testing</t>
+    <t>Phạm Hồng</t>
+  </si>
+  <si>
+    <t>Nhung</t>
+  </si>
+  <si>
+    <t>0904590445</t>
+  </si>
+  <si>
+    <t>0904590446</t>
+  </si>
+  <si>
+    <t>Comment 2</t>
+  </si>
+  <si>
+    <t>Comment 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scalable Test Automation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Analytics &amp; AI Insights </t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>meo</t>
+  </si>
+  <si>
+    <t>Debugging</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -119,17 +144,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -444,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F2D082-E39B-43EF-A07C-6F699D66E5B3}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,7 +478,7 @@
     <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -499,27 +521,73 @@
       <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E3" s="2"/>
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>